--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -441,10 +441,10 @@
   <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B138" sqref="B138"/>
+      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2864,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,10 +5082,10 @@
   <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
+      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5901,7 +5901,7 @@
         <v>43677</v>
       </c>
       <c r="B158" s="2">
-        <v>3.2399999999999998E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7326,7 +7326,7 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="2">
-        <v>1.9699999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -7334,29 +7334,29 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
+        <v>2.47E-2</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.02</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>-0.5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.03</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.03</v>
       </c>
       <c r="N4" s="2">
-        <v>2.47E-2</v>
+        <v>0.18</v>
       </c>
       <c r="O4" s="2">
         <v>2.47E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>2.47E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" s="2">
         <v>2.47E-2</v>
@@ -7369,11 +7369,16 @@
       <c r="D5" s="3">
         <v>0.01</v>
       </c>
+      <c r="F5" s="2">
+        <v>1.47E-2</v>
+      </c>
       <c r="H5" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.05</v>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>2.47E-2</v>
@@ -7388,7 +7393,7 @@
         <v>2.47E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>2.47E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q5" s="2">
         <v>2.47E-2</v>
@@ -7398,14 +7403,15 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
+      <c r="P6" s="2">
+        <v>2.47E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
-        <v>1.47E-2</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,18 +158,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomRight" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +471,7 @@
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1248,17 +1263,17 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
@@ -1271,73 +1286,133 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42886</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>3.6874999999999989E-3</v>
+      </c>
+      <c r="C132" s="2">
+        <v>3.6874999999999989E-3</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1.6499999999999996E-3</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42947</v>
       </c>
       <c r="B134" s="2">
-        <v>3.6874999999999989E-3</v>
+        <v>1.8437499999999995E-3</v>
       </c>
       <c r="C134" s="2">
-        <v>3.6874999999999989E-3</v>
+        <v>1.8437499999999995E-3</v>
       </c>
       <c r="D134" s="2">
-        <v>0.121</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="E134" s="2">
-        <v>1.6499999999999996E-3</v>
+        <v>8.2499999999999978E-4</v>
       </c>
       <c r="F134" s="3">
-        <v>0.44</v>
+        <v>0.47287356321839075</v>
       </c>
       <c r="G134" s="3">
-        <v>0.11</v>
+        <v>0.11821839080459769</v>
       </c>
       <c r="H134" s="3">
-        <v>0.32</v>
+        <v>0.34390804597701147</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K134" s="7"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42978</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="6"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43007</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43039</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>3.6874999999999989E-3</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3.6874999999999989E-3</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1.6499999999999996E-3</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43069</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43098</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43131</v>
       </c>
@@ -1350,22 +1425,22 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43159</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43189</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
@@ -3011,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,82 +3742,83 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42886</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42947</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42978</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43007</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43039</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43069</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43098</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43131</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43159</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43189</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
@@ -5081,11 +5157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomRight" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5831,165 +5907,174 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="2">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-      <c r="B158" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43769</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43798</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43861</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43889</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43921</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44012</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44074</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44104</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44134</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44165</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44196</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>
@@ -7168,7 +7253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>pms_hlf_aua</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Tax</t>
+  </si>
+  <si>
+    <t>cash_service</t>
+  </si>
+  <si>
+    <t>cash_service_aua</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E138" sqref="E138"/>
+      <selection pane="bottomRight" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +480,7 @@
     <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -499,78 +505,81 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>38929</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38960</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38989</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39021</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39051</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39080</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39113</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39171</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39202</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39233</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39262</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39294</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39325</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39353</v>
       </c>
@@ -975,72 +984,72 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41820</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41880</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41912</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41943</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41971</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42004</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42034</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42062</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42094</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42124</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42153</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42185</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42216</v>
       </c>
@@ -1068,18 +1077,21 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42247</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42277</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42307</v>
       </c>
@@ -1107,18 +1119,21 @@
       <c r="I113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42338</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42369</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42398</v>
       </c>
@@ -1146,18 +1161,21 @@
       <c r="I116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42429</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42460</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42489</v>
       </c>
@@ -1185,13 +1203,16 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42521</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42551</v>
       </c>
@@ -1204,7 +1225,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42580</v>
       </c>
@@ -1217,17 +1238,17 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42613</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42643</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42674</v>
       </c>
@@ -1240,17 +1261,17 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42704</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42766</v>
       </c>
@@ -1314,6 +1335,9 @@
       <c r="I132" s="3">
         <v>0</v>
       </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -1346,6 +1370,9 @@
         <v>0.34390804597701147</v>
       </c>
       <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
         <v>0</v>
       </c>
       <c r="K134" s="7"/>
@@ -1399,6 +1426,9 @@
         <v>0.34</v>
       </c>
       <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5155,13 +5185,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I159" sqref="I159"/>
+      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,9 +5200,10 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -5182,78 +5213,81 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>38929</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38960</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38989</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39021</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39051</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39080</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39113</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39202</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39233</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39262</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39294</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39325</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39353</v>
       </c>
@@ -5818,32 +5852,32 @@
         <v>42766</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42794</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42825</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42853</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42886</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42947</v>
       </c>
@@ -5857,52 +5891,55 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42978</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43007</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43039</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43069</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43098</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43131</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43159</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43189</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
@@ -7254,7 +7291,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2879,7 @@
         <v>2018</v>
       </c>
       <c r="B12" s="3">
-        <v>0.1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
@@ -5187,7 +5187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -2968,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
@@ -5188,10 +5188,10 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
+      <selection pane="bottomRight" activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,9 +5920,6 @@
       <c r="A140" s="1">
         <v>43131</v>
       </c>
-      <c r="E140" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -5937,6 +5934,9 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
+      </c>
+      <c r="E143" s="2">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7290,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,7 +7478,7 @@
         <v>2.47E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>0.04</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q4" s="2">
         <v>2.47E-2</v>
@@ -7515,7 +7515,7 @@
         <v>2.47E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.7499999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="Q5" s="2">
         <v>2.47E-2</v>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2879,7 @@
         <v>2018</v>
       </c>
       <c r="B12" s="3">
-        <v>7.8E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7290,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -2807,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,6 +2957,26 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
@@ -3116,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="O130" sqref="O130"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,6 +3852,9 @@
       <c r="A140" s="1">
         <v>43131</v>
       </c>
+      <c r="B140" s="3">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3853,162 +3876,166 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43769</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43798</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43861</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43889</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43921</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44012</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44074</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44104</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44134</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44165</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44196</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B398" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H119" sqref="H119"/>
@@ -2809,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3136,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3853,7 +3853,7 @@
         <v>43131</v>
       </c>
       <c r="B140" s="3">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,6 +3870,9 @@
       <c r="A143" s="1">
         <v>43220</v>
       </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3915,7 +3918,9 @@
       <c r="A152" s="1">
         <v>43496</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="3">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3976,9 +3981,7 @@
       <c r="A164" s="1">
         <v>43861</v>
       </c>
-      <c r="B164" s="3">
-        <v>0.06</v>
-      </c>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -5215,10 +5218,10 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H144" sqref="H144"/>
+      <selection pane="bottomRight" activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,53 +5965,54 @@
       <c r="A143" s="1">
         <v>43220</v>
       </c>
-      <c r="E143" s="2">
-        <v>2E-3</v>
-      </c>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
       <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E146" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -6016,43 +6020,43 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>
@@ -7315,10 +7319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7524,10 +7528,12 @@
       <c r="H5" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0.14799999999999999</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>0</v>
+      <c r="K5" s="3">
+        <v>-17</v>
       </c>
       <c r="L5" s="2">
         <v>2.47E-2</v>
@@ -7552,6 +7558,12 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
+      <c r="I6" s="2">
+        <v>2.47E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-0.5</v>
+      </c>
       <c r="P6" s="2">
         <v>2.47E-2</v>
       </c>
@@ -7561,6 +7573,9 @@
         <v>43644</v>
       </c>
       <c r="F7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -7571,6 +7586,7 @@
       <c r="A8" s="1">
         <v>43830</v>
       </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7708,6 +7724,16 @@
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>48760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>48943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>49125</v>
       </c>
     </row>
   </sheetData>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEBCDBD-3941-4592-BA57-A5169B52B53D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="aua margin" sheetId="4" r:id="rId5"/>
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,11 +461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B398" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H119" sqref="H119"/>
+      <selection pane="bottomRight" activeCell="B139" sqref="B139:J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1442,33 @@
       <c r="A139" s="1">
         <v>43098</v>
       </c>
+      <c r="B139" s="2">
+        <v>1.8437499999999995E-3</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1.8437499999999995E-3</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E139" s="2">
+        <v>8.2499999999999978E-4</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.47287356321839075</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.11821839080459769</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0.34390804597701147</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -3136,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEBCDBD-3941-4592-BA57-A5169B52B53D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78BDD8-41F2-4FE7-A34E-CA51446C82EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000000%"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -178,6 +180,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,14 +469,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139:J139"/>
+      <selection pane="bottomRight" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -1474,111 +1479,217 @@
       <c r="A140" s="1">
         <v>43131</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
+      <c r="B140" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="C140" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="D140" s="2">
+        <v>3.2917708133051338E-2</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3.806960199961545E-4</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.48557471264367813</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.12264367816091953</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0.35678160919540225</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43159</v>
       </c>
+      <c r="B141" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="C141" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3.2917708133051338E-2</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3.806960199961545E-4</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.48557471264367813</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0.12264367816091953</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0.35678160919540225</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43189</v>
       </c>
+      <c r="B142" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="C142" s="2">
+        <v>8.5079792347625427E-4</v>
+      </c>
+      <c r="D142" s="2">
+        <v>3.2917708133051338E-2</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3.806960199961545E-4</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0.48557471264367813</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.12264367816091953</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0.35678160919540225</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43220</v>
       </c>
+      <c r="B143" s="2">
+        <v>1.8437499999999995E-3</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1.8437499999999995E-3</v>
+      </c>
+      <c r="D143" s="2">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8.2499999999999978E-4</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0.47287356321839075</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0.11821839080459769</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0.34390804597701147</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43251</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D145" s="8"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78BDD8-41F2-4FE7-A34E-CA51446C82EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46C3BE-FAEF-4DAE-A0DE-5592A14B89D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="compound growth" sheetId="3" r:id="rId4"/>
     <sheet name="aua margin" sheetId="4" r:id="rId5"/>
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
+    <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>pms_hlf_aua</t>
   </si>
@@ -122,6 +123,9 @@
   <si>
     <t>cash_service_aua</t>
   </si>
+  <si>
+    <t>nnc pcent total client</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0000000000000000%"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +185,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7878,4 +7882,1846 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
+  <dimension ref="A1:B409"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>38989</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>39080</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39171</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39262</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>39353</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>39447</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39538</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>39629</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>39721</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39813</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>39903</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>39994</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40086</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40268</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40451</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>40907</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41362</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41453</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42734</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>46112</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>46203</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>46295</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>46477</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>46568</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>46660</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>46843</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>46934</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>47025</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>47116</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>47207</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>47298</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>47389</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>47571</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>47662</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>47756</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>47938</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>48029</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>48121</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>48304</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>48395</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>48487</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>48669</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>48760</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>48852</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>48943</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>49034</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>49125</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>49216</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>49307</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>49398</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>49489</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>49580</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>49765</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>49856</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>49948</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>50130</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>50221</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>50313</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>50495</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>50586</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>50678</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>50860</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>50951</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>51043</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>51134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>51225</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>51316</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46C3BE-FAEF-4DAE-A0DE-5592A14B89D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B616A3A-D875-4A24-8DBE-D16C1AF8EC1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7888,8 +7888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +8183,7 @@
         <v>43189</v>
       </c>
       <c r="B48" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B616A3A-D875-4A24-8DBE-D16C1AF8EC1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97433D-AE53-468F-957E-3951ADED39FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7888,8 +7888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +8183,7 @@
         <v>43189</v>
       </c>
       <c r="B48" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97433D-AE53-468F-957E-3951ADED39FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16023AC7-F69E-4CD3-9C2D-1E7D8E58C996}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -3279,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,6 +4046,9 @@
       <c r="A149" s="1">
         <v>43404</v>
       </c>
+      <c r="B149" s="3">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -4061,9 +4064,7 @@
       <c r="A152" s="1">
         <v>43496</v>
       </c>
-      <c r="B152" s="3">
-        <v>0.06</v>
-      </c>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -7888,7 +7889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16023AC7-F69E-4CD3-9C2D-1E7D8E58C996}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315189F9-5257-49BD-A4BE-D029CF90AD06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -131,12 +131,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,6 +187,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3279,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,17 +7891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7907,299 +7910,253 @@
       <c r="A2" s="1">
         <v>38989</v>
       </c>
-      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39080</v>
       </c>
-      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39171</v>
       </c>
-      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39262</v>
       </c>
-      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39353</v>
       </c>
-      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39447</v>
       </c>
-      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39538</v>
       </c>
-      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39629</v>
       </c>
-      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39721</v>
       </c>
-      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39813</v>
       </c>
-      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39903</v>
       </c>
-      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39994</v>
       </c>
-      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40086</v>
       </c>
-      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40178</v>
       </c>
-      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40268</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40359</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40451</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40543</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40633</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40724</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40816</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40907</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40998</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41089</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41180</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41274</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41362</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41453</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41547</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41639</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41729</v>
       </c>
-      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41820</v>
       </c>
-      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41912</v>
       </c>
-      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42004</v>
       </c>
-      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42094</v>
       </c>
-      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42185</v>
       </c>
-      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42277</v>
       </c>
-      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42369</v>
       </c>
-      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42460</v>
       </c>
-      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42551</v>
       </c>
-      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42643</v>
       </c>
-      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42734</v>
       </c>
-      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42825</v>
       </c>
-      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42916</v>
       </c>
-      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43007</v>
       </c>
-      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43098</v>
       </c>
-      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43189</v>
       </c>
-      <c r="B48" s="2">
-        <v>5.1999999999999998E-2</v>
+      <c r="B48" s="10">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43280</v>
       </c>
-      <c r="B49" s="3">
-        <v>0.04</v>
+      <c r="B49" s="10">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43371</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8207,7 +8164,7 @@
       <c r="A51" s="1">
         <v>43465</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8215,7 +8172,7 @@
       <c r="A52" s="1">
         <v>43553</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -8223,7 +8180,7 @@
       <c r="A53" s="1">
         <v>43644</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -8231,7 +8188,7 @@
       <c r="A54" s="1">
         <v>43738</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8239,7 +8196,7 @@
       <c r="A55" s="1">
         <v>43830</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8247,7 +8204,7 @@
       <c r="A56" s="1">
         <v>43921</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -8255,7 +8212,7 @@
       <c r="A57" s="1">
         <v>44012</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -8263,7 +8220,7 @@
       <c r="A58" s="1">
         <v>44104</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8271,7 +8228,7 @@
       <c r="A59" s="1">
         <v>44196</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8279,7 +8236,7 @@
       <c r="A60" s="1">
         <v>44286</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -8287,7 +8244,7 @@
       <c r="A61" s="1">
         <v>44377</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -8295,7 +8252,7 @@
       <c r="A62" s="1">
         <v>44469</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8303,7 +8260,7 @@
       <c r="A63" s="1">
         <v>44561</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8311,7 +8268,7 @@
       <c r="A64" s="1">
         <v>44651</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -8319,7 +8276,7 @@
       <c r="A65" s="1">
         <v>44742</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -8327,7 +8284,7 @@
       <c r="A66" s="1">
         <v>44834</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8335,7 +8292,7 @@
       <c r="A67" s="1">
         <v>44925</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8343,7 +8300,7 @@
       <c r="A68" s="1">
         <v>45016</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -8351,7 +8308,7 @@
       <c r="A69" s="1">
         <v>45107</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -8359,7 +8316,7 @@
       <c r="A70" s="1">
         <v>45198</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8367,7 +8324,7 @@
       <c r="A71" s="1">
         <v>45289</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8375,7 +8332,7 @@
       <c r="A72" s="1">
         <v>45380</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8383,7 +8340,7 @@
       <c r="A73" s="1">
         <v>45471</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8391,7 +8348,7 @@
       <c r="A74" s="1">
         <v>45565</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8399,7 +8356,7 @@
       <c r="A75" s="1">
         <v>45657</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8407,7 +8364,7 @@
       <c r="A76" s="1">
         <v>45747</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8415,7 +8372,7 @@
       <c r="A77" s="1">
         <v>45838</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8423,7 +8380,7 @@
       <c r="A78" s="1">
         <v>45930</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8431,7 +8388,7 @@
       <c r="A79" s="1">
         <v>46022</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8439,7 +8396,7 @@
       <c r="A80" s="1">
         <v>46112</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8447,7 +8404,7 @@
       <c r="A81" s="1">
         <v>46203</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8455,7 +8412,7 @@
       <c r="A82" s="1">
         <v>46295</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8463,7 +8420,7 @@
       <c r="A83" s="1">
         <v>46387</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8471,7 +8428,7 @@
       <c r="A84" s="1">
         <v>46477</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8479,7 +8436,7 @@
       <c r="A85" s="1">
         <v>46568</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8487,7 +8444,7 @@
       <c r="A86" s="1">
         <v>46660</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8495,7 +8452,7 @@
       <c r="A87" s="1">
         <v>46752</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8503,7 +8460,7 @@
       <c r="A88" s="1">
         <v>46843</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8511,7 +8468,7 @@
       <c r="A89" s="1">
         <v>46934</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8519,7 +8476,7 @@
       <c r="A90" s="1">
         <v>47025</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8527,7 +8484,7 @@
       <c r="A91" s="1">
         <v>47116</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8535,7 +8492,7 @@
       <c r="A92" s="1">
         <v>47207</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8543,7 +8500,7 @@
       <c r="A93" s="1">
         <v>47298</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8551,7 +8508,7 @@
       <c r="A94" s="1">
         <v>47389</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8559,7 +8516,7 @@
       <c r="A95" s="1">
         <v>47483</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8567,7 +8524,7 @@
       <c r="A96" s="1">
         <v>47571</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8575,7 +8532,7 @@
       <c r="A97" s="1">
         <v>47662</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8583,7 +8540,7 @@
       <c r="A98" s="1">
         <v>47756</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8591,7 +8548,7 @@
       <c r="A99" s="1">
         <v>47848</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8599,7 +8556,7 @@
       <c r="A100" s="1">
         <v>47938</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8607,7 +8564,7 @@
       <c r="A101" s="1">
         <v>48029</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8615,7 +8572,7 @@
       <c r="A102" s="1">
         <v>48121</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8623,7 +8580,7 @@
       <c r="A103" s="1">
         <v>48213</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8631,7 +8588,7 @@
       <c r="A104" s="1">
         <v>48304</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8639,7 +8596,7 @@
       <c r="A105" s="1">
         <v>48395</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8647,7 +8604,7 @@
       <c r="A106" s="1">
         <v>48487</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8655,7 +8612,7 @@
       <c r="A107" s="1">
         <v>48579</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8663,7 +8620,7 @@
       <c r="A108" s="1">
         <v>48669</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8671,7 +8628,7 @@
       <c r="A109" s="1">
         <v>48760</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8679,7 +8636,7 @@
       <c r="A110" s="1">
         <v>48852</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8687,7 +8644,7 @@
       <c r="A111" s="1">
         <v>48943</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8695,7 +8652,7 @@
       <c r="A112" s="1">
         <v>49034</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8703,7 +8660,7 @@
       <c r="A113" s="1">
         <v>49125</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8711,7 +8668,7 @@
       <c r="A114" s="1">
         <v>49216</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8719,7 +8676,7 @@
       <c r="A115" s="1">
         <v>49307</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8727,7 +8684,7 @@
       <c r="A116" s="1">
         <v>49398</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8735,7 +8692,7 @@
       <c r="A117" s="1">
         <v>49489</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8743,7 +8700,7 @@
       <c r="A118" s="1">
         <v>49580</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8751,7 +8708,7 @@
       <c r="A119" s="1">
         <v>49674</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8759,7 +8716,7 @@
       <c r="A120" s="1">
         <v>49765</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8767,7 +8724,7 @@
       <c r="A121" s="1">
         <v>49856</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8775,7 +8732,7 @@
       <c r="A122" s="1">
         <v>49948</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8783,7 +8740,7 @@
       <c r="A123" s="1">
         <v>50040</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8791,7 +8748,7 @@
       <c r="A124" s="1">
         <v>50130</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8799,7 +8756,7 @@
       <c r="A125" s="1">
         <v>50221</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8807,7 +8764,7 @@
       <c r="A126" s="1">
         <v>50313</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8815,7 +8772,7 @@
       <c r="A127" s="1">
         <v>50405</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8823,7 +8780,7 @@
       <c r="A128" s="1">
         <v>50495</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8831,7 +8788,7 @@
       <c r="A129" s="1">
         <v>50586</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8839,7 +8796,7 @@
       <c r="A130" s="1">
         <v>50678</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8847,7 +8804,7 @@
       <c r="A131" s="1">
         <v>50770</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8855,7 +8812,7 @@
       <c r="A132" s="1">
         <v>50860</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="10">
         <v>0.03</v>
       </c>
     </row>
@@ -8863,7 +8820,7 @@
       <c r="A133" s="1">
         <v>50951</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -8871,7 +8828,7 @@
       <c r="A134" s="1">
         <v>51043</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8879,7 +8836,7 @@
       <c r="A135" s="1">
         <v>51134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8887,7 +8844,7 @@
       <c r="A136" s="1">
         <v>51225</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -8895,37 +8852,30 @@
       <c r="A137" s="1">
         <v>51316</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="10">
         <v>0.01</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315189F9-5257-49BD-A4BE-D029CF90AD06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411D54F-2427-4726-AC5E-734EB9713AE0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L138" sqref="L138"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,16 +1486,16 @@
         <v>43131</v>
       </c>
       <c r="B140" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="C140" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="D140" s="2">
-        <v>3.2917708133051338E-2</v>
+        <v>7.4447221688136903E-2</v>
       </c>
       <c r="E140" s="2">
-        <v>3.806960199961545E-4</v>
+        <v>1.0151893866564121E-3</v>
       </c>
       <c r="F140" s="3">
         <v>0.48557471264367813</v>
@@ -1518,16 +1518,16 @@
         <v>43159</v>
       </c>
       <c r="B141" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="C141" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="D141" s="2">
-        <v>3.2917708133051338E-2</v>
+        <v>7.4447221688136903E-2</v>
       </c>
       <c r="E141" s="2">
-        <v>3.806960199961545E-4</v>
+        <v>1.0151893866564121E-3</v>
       </c>
       <c r="F141" s="3">
         <v>0.48557471264367813</v>
@@ -1550,16 +1550,16 @@
         <v>43189</v>
       </c>
       <c r="B142" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="C142" s="2">
-        <v>8.5079792347625427E-4</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="D142" s="2">
-        <v>3.2917708133051338E-2</v>
+        <v>7.4447221688136903E-2</v>
       </c>
       <c r="E142" s="2">
-        <v>3.806960199961545E-4</v>
+        <v>1.0151893866564121E-3</v>
       </c>
       <c r="F142" s="3">
         <v>0.48557471264367813</v>
@@ -1582,16 +1582,16 @@
         <v>43220</v>
       </c>
       <c r="B143" s="2">
-        <v>1.8437499999999995E-3</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="C143" s="2">
-        <v>1.8437499999999995E-3</v>
+        <v>2.2687944626033451E-3</v>
       </c>
       <c r="D143" s="2">
-        <v>6.0499999999999998E-2</v>
+        <v>7.4447221688136903E-2</v>
       </c>
       <c r="E143" s="2">
-        <v>8.2499999999999978E-4</v>
+        <v>1.0151893866564121E-3</v>
       </c>
       <c r="F143" s="3">
         <v>0.47287356321839075</v>
@@ -1629,6 +1629,10 @@
       <c r="A146" s="1">
         <v>43312</v>
       </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -7889,10 +7893,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8173,7 +8177,7 @@
         <v>43553</v>
       </c>
       <c r="B52" s="10">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8181,7 +8185,7 @@
         <v>43644</v>
       </c>
       <c r="B53" s="10">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8205,7 +8209,7 @@
         <v>43921</v>
       </c>
       <c r="B56" s="10">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8213,7 +8217,7 @@
         <v>44012</v>
       </c>
       <c r="B57" s="10">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8237,7 +8241,7 @@
         <v>44286</v>
       </c>
       <c r="B60" s="10">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8245,7 +8249,7 @@
         <v>44377</v>
       </c>
       <c r="B61" s="10">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8269,18 +8273,18 @@
         <v>44651</v>
       </c>
       <c r="B64" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44742</v>
       </c>
       <c r="B65" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44834</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44925</v>
       </c>
@@ -8296,55 +8300,58 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45016</v>
       </c>
       <c r="B68" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45107</v>
       </c>
       <c r="B69" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45198</v>
       </c>
       <c r="B70" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45289</v>
       </c>
       <c r="B71" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45380</v>
       </c>
       <c r="B72" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45471</v>
       </c>
       <c r="B73" s="10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45565</v>
       </c>
@@ -8352,7 +8359,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45657</v>
       </c>
@@ -8360,23 +8367,23 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45747</v>
       </c>
       <c r="B76" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45838</v>
       </c>
       <c r="B77" s="10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45930</v>
       </c>
@@ -8384,7 +8391,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46022</v>
       </c>
@@ -8392,12 +8399,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>46112</v>
       </c>
       <c r="B80" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8405,7 +8412,7 @@
         <v>46203</v>
       </c>
       <c r="B81" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8429,7 +8436,7 @@
         <v>46477</v>
       </c>
       <c r="B84" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8437,7 +8444,7 @@
         <v>46568</v>
       </c>
       <c r="B85" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8461,7 +8468,7 @@
         <v>46843</v>
       </c>
       <c r="B88" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8469,7 +8476,7 @@
         <v>46934</v>
       </c>
       <c r="B89" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8493,7 +8500,7 @@
         <v>47207</v>
       </c>
       <c r="B92" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8501,7 +8508,7 @@
         <v>47298</v>
       </c>
       <c r="B93" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8525,7 +8532,7 @@
         <v>47571</v>
       </c>
       <c r="B96" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8533,7 +8540,7 @@
         <v>47662</v>
       </c>
       <c r="B97" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8557,7 +8564,7 @@
         <v>47938</v>
       </c>
       <c r="B100" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8565,7 +8572,7 @@
         <v>48029</v>
       </c>
       <c r="B101" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8589,7 +8596,7 @@
         <v>48304</v>
       </c>
       <c r="B104" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8597,7 +8604,7 @@
         <v>48395</v>
       </c>
       <c r="B105" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8621,7 +8628,7 @@
         <v>48669</v>
       </c>
       <c r="B108" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8629,7 +8636,7 @@
         <v>48760</v>
       </c>
       <c r="B109" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8653,7 +8660,7 @@
         <v>49034</v>
       </c>
       <c r="B112" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8661,7 +8668,7 @@
         <v>49125</v>
       </c>
       <c r="B113" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8685,7 +8692,7 @@
         <v>49398</v>
       </c>
       <c r="B116" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8693,7 +8700,7 @@
         <v>49489</v>
       </c>
       <c r="B117" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -8717,7 +8724,7 @@
         <v>49765</v>
       </c>
       <c r="B120" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8725,7 +8732,7 @@
         <v>49856</v>
       </c>
       <c r="B121" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8749,7 +8756,7 @@
         <v>50130</v>
       </c>
       <c r="B124" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8757,7 +8764,7 @@
         <v>50221</v>
       </c>
       <c r="B125" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8781,7 +8788,7 @@
         <v>50495</v>
       </c>
       <c r="B128" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8789,7 +8796,7 @@
         <v>50586</v>
       </c>
       <c r="B129" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8813,7 +8820,7 @@
         <v>50860</v>
       </c>
       <c r="B132" s="10">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8821,7 +8828,7 @@
         <v>50951</v>
       </c>
       <c r="B133" s="10">
-        <v>0.02</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8829,7 +8836,7 @@
         <v>51043</v>
       </c>
       <c r="B134" s="10">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8837,7 +8844,7 @@
         <v>51134</v>
       </c>
       <c r="B135" s="10">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8845,7 +8852,7 @@
         <v>51225</v>
       </c>
       <c r="B136" s="10">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411D54F-2427-4726-AC5E-734EB9713AE0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93126E16-AD74-49FF-9BB2-B1187F0DB8DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7895,8 +7895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8153,7 +8153,7 @@
         <v>43280</v>
       </c>
       <c r="B49" s="10">
-        <v>3.2000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93126E16-AD74-49FF-9BB2-B1187F0DB8DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E6845-6BCB-425C-B905-002EE40DDF12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -7471,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,6 +7714,12 @@
       <c r="K6" s="2">
         <v>-0.5</v>
       </c>
+      <c r="L6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.03</v>
+      </c>
       <c r="P6" s="2">
         <v>2.47E-2</v>
       </c>
@@ -7895,7 +7901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E6845-6BCB-425C-B905-002EE40DDF12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A4CF4-7AB3-430C-916E-B82EF9E9F890}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3137,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3203,7 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>0.19</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A4CF4-7AB3-430C-916E-B82EF9E9F890}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFD86C-FD30-4BC6-A24F-5E10B19687A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,10 @@
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -136,13 +131,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +189,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,21 +474,21 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
+      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1503,13 +1500,13 @@
         <v>1.0151893866564121E-3</v>
       </c>
       <c r="F140" s="3">
-        <v>0.48557471264367813</v>
+        <v>0.45787356321839073</v>
       </c>
       <c r="G140" s="3">
-        <v>0.12264367816091953</v>
+        <v>0.11821839080459769</v>
       </c>
       <c r="H140" s="3">
-        <v>0.35678160919540225</v>
+        <v>0.34390804597701147</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -1535,13 +1532,13 @@
         <v>1.0151893866564121E-3</v>
       </c>
       <c r="F141" s="3">
-        <v>0.48557471264367813</v>
+        <v>0.45787356321839073</v>
       </c>
       <c r="G141" s="3">
-        <v>0.12264367816091953</v>
+        <v>0.11821839080459769</v>
       </c>
       <c r="H141" s="3">
-        <v>0.35678160919540225</v>
+        <v>0.34390804597701147</v>
       </c>
       <c r="I141" s="3">
         <v>0</v>
@@ -1567,13 +1564,13 @@
         <v>1.0151893866564121E-3</v>
       </c>
       <c r="F142" s="3">
-        <v>0.48557471264367813</v>
+        <v>0.45787356321839073</v>
       </c>
       <c r="G142" s="3">
-        <v>0.12264367816091953</v>
+        <v>0.11821839080459769</v>
       </c>
       <c r="H142" s="3">
-        <v>0.35678160919540225</v>
+        <v>0.34390804597701147</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -1599,7 +1596,7 @@
         <v>1.0151893866564121E-3</v>
       </c>
       <c r="F143" s="3">
-        <v>0.47287356321839075</v>
+        <v>0.45787356321839073</v>
       </c>
       <c r="G143" s="3">
         <v>0.11821839080459769</v>
@@ -1622,15 +1619,41 @@
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43280</v>
       </c>
-      <c r="D145" s="8"/>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>2.2687944626033451E-3</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2.1687944626033453E-3</v>
+      </c>
+      <c r="D145" s="2">
+        <v>7.4447221688136903E-2</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1.0151893866564121E-3</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.45787356321839073</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.11781839080459769</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.33940804597701102</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43312</v>
       </c>
@@ -1638,73 +1661,103 @@
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43343</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43371</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43585</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43616</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43644</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>2.2687944626033451E-3</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1.6687944626033453E-3</v>
+      </c>
+      <c r="D157" s="2">
+        <v>7.4447221688136903E-2</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1.0151893866564121E-3</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.45787356321839073</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.11781839080459769</v>
+      </c>
+      <c r="H157" s="9">
+        <v>0.33490804597701102</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43738</v>
       </c>
@@ -2963,7 +3016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3142,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,6 +3262,9 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
+      </c>
+      <c r="B12">
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
@@ -5373,7 +5429,7 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B395" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K142" sqref="K142"/>
@@ -7476,8 +7532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,7 +7742,7 @@
       <c r="I5" s="2">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>-17</v>
       </c>
@@ -7734,8 +7790,9 @@
         <v>43644</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="K7" s="2">
-        <v>0</v>
+      <c r="I7" s="2"/>
+      <c r="K7" s="3">
+        <v>0.3</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -7747,37 +7804,47 @@
       <c r="A8" s="1">
         <v>43830</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44012</v>
       </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44377</v>
       </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44561</v>
       </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44742</v>
       </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44925</v>
       </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7786,116 +7853,139 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45289</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45471</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46022</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46203</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46387</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46568</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46934</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47116</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47298</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47483</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47662</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47848</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48029</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48213</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>48395</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48579</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>48760</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>48943</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>49125</v>
       </c>
+      <c r="K37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7904,10 +7994,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8287,7 +8377,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44742</v>
       </c>
@@ -8295,7 +8385,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44834</v>
       </c>
@@ -8303,7 +8393,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44925</v>
       </c>
@@ -8311,7 +8401,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45016</v>
       </c>
@@ -8319,7 +8409,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45107</v>
       </c>
@@ -8327,7 +8417,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45198</v>
       </c>
@@ -8335,7 +8425,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45289</v>
       </c>
@@ -8343,7 +8433,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45380</v>
       </c>
@@ -8351,18 +8441,15 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45471</v>
       </c>
       <c r="B73" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45565</v>
       </c>
@@ -8370,7 +8457,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45657</v>
       </c>
@@ -8378,7 +8465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45747</v>
       </c>
@@ -8386,7 +8473,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45838</v>
       </c>
@@ -8394,7 +8481,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45930</v>
       </c>
@@ -8402,7 +8489,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46022</v>
       </c>
@@ -8410,7 +8497,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>46112</v>
       </c>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFD86C-FD30-4BC6-A24F-5E10B19687A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA490BDA-BD2C-469E-A9A4-DF22FE40A9FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3780" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5429,10 +5429,10 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K142" sqref="K142"/>
+      <selection pane="bottomRight" activeCell="AA136" sqref="AA136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6187,6 +6187,9 @@
       <c r="A145" s="1">
         <v>43280</v>
       </c>
+      <c r="B145" s="7">
+        <v>4.0800000000000003E-3</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -6221,6 +6224,9 @@
       <c r="A151" s="1">
         <v>43465</v>
       </c>
+      <c r="B151" s="7">
+        <v>4.0700000000000007E-3</v>
+      </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6255,6 +6261,9 @@
       <c r="A157" s="1">
         <v>43644</v>
       </c>
+      <c r="B157" s="7">
+        <v>4.0600000000000011E-3</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -6286,8 +6295,8 @@
       <c r="A163" s="1">
         <v>43830</v>
       </c>
-      <c r="B163" s="2">
-        <v>3.5999999999999999E-3</v>
+      <c r="B163" s="7">
+        <v>4.0500000000000015E-3</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -6322,6 +6331,9 @@
       <c r="A169" s="1">
         <v>44012</v>
       </c>
+      <c r="B169" s="7">
+        <v>4.0400000000000019E-3</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -6352,408 +6364,450 @@
       <c r="A175" s="1">
         <v>44196</v>
       </c>
+      <c r="B175" s="7">
+        <v>4.0300000000000023E-3</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44253</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44286</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44316</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44347</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44377</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="7">
+        <v>4.0200000000000027E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44407</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44439</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44469</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44498</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44530</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44561</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="7">
+        <v>4.0100000000000031E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44592</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44620</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44651</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44680</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44712</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44742</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="7">
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44771</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44804</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44834</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44865</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44895</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44925</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="7">
+        <v>3.990000000000004E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44957</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44985</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45016</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45044</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45077</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45107</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="7">
+        <v>3.9800000000000044E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45138</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45169</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45198</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45230</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45260</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45289</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="7">
+        <v>3.9700000000000048E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45322</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45351</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45380</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45412</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45443</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45471</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="7">
+        <v>3.9600000000000052E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45504</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45534</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45565</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45596</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45625</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45657</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="7">
+        <v>3.9500000000000056E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45688</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45716</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45747</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45777</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45807</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45838</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="7">
+        <v>3.940000000000006E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45898</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45930</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45961</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45989</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>46022</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="7">
+        <v>3.9300000000000064E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>46052</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>46080</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>46112</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>46142</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>46171</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>46203</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="7">
+        <v>3.9200000000000068E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>46234</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>46265</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>46295</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>46325</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>46356</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>46387</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="7">
+        <v>3.9100000000000072E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>46416</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>46444</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>46477</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>46507</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>46538</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>46568</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="7">
+        <v>3.9000000000000072E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>46598</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>46630</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>46660</v>
       </c>
@@ -7532,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,8 +7835,14 @@
       <c r="M6" s="3">
         <v>0.03</v>
       </c>
-      <c r="P6" s="2">
-        <v>2.47E-2</v>
+      <c r="N6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -7794,11 +7854,21 @@
       <c r="K7" s="3">
         <v>0.3</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="L7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7807,6 +7877,21 @@
       <c r="K8" s="2">
         <v>-0.12</v>
       </c>
+      <c r="L8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7815,36 +7900,126 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
+      <c r="L9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
       <c r="K10" s="2"/>
+      <c r="L10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44377</v>
       </c>
       <c r="K11" s="3"/>
+      <c r="L11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44561</v>
       </c>
       <c r="K12" s="2"/>
+      <c r="L12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44742</v>
       </c>
       <c r="K13" s="3"/>
+      <c r="L13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44925</v>
       </c>
       <c r="K14" s="2"/>
+      <c r="L14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7854,138 +8029,273 @@
         <v>0</v>
       </c>
       <c r="K15" s="3"/>
+      <c r="L15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45289</v>
       </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45471</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46022</v>
       </c>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46203</v>
       </c>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46387</v>
       </c>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46568</v>
       </c>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46934</v>
       </c>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>47116</v>
       </c>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>47298</v>
       </c>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>47483</v>
       </c>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47662</v>
       </c>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47848</v>
       </c>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48029</v>
       </c>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48213</v>
       </c>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>48395</v>
       </c>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48579</v>
       </c>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>48760</v>
       </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>48943</v>
       </c>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>49125</v>
       </c>
       <c r="K37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA490BDA-BD2C-469E-A9A4-DF22FE40A9FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A4805-21C4-493F-A001-A40390CD23A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3780" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,24 @@
     <sheet name="aua margin" sheetId="4" r:id="rId5"/>
     <sheet name="growth rate" sheetId="5" r:id="rId6"/>
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
+    <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>pms_hlf_aua</t>
   </si>
@@ -125,6 +131,12 @@
   </si>
   <si>
     <t>nnc pcent total client</t>
+  </si>
+  <si>
+    <t>others_cash_interest_rebt</t>
+  </si>
+  <si>
+    <t>sipp_cash_interest_rebt</t>
   </si>
 </sst>
 </file>
@@ -474,10 +486,10 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="O165" sqref="O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7586,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,6 +7835,12 @@
       <c r="A6" s="1">
         <v>43465</v>
       </c>
+      <c r="D6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.06</v>
+      </c>
       <c r="I6" s="2">
         <v>2.47E-2</v>
       </c>
@@ -7849,8 +7867,12 @@
       <c r="A7" s="1">
         <v>43644</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.05</v>
+      </c>
       <c r="K7" s="3">
         <v>0.3</v>
       </c>
@@ -8071,11 +8093,21 @@
         <v>45471</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="L17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -10090,4 +10122,2084 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
+  <dimension ref="A1:C409"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>38929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>38960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>38989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>39051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>39080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>39141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>39171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>39233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>39262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>39294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>39325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>39353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>39386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>39416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>39478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>39507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>39538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>39568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>39598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>39629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>39660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>39689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>39721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>39752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>39780</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>39843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>39871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>39903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>39933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>39962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>39994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>40025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>40235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>40268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>40298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>40329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>40359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>40389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>40421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>40451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>40512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>40574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>40633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>40662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>40753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>40816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>40847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>40877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>40907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>40968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>40998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>41029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>41060</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>41089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>41152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>41180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>41243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>41305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>41333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>41362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>41394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>41425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>41453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>41486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>41516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>41547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>41578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>41698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>41759</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>41789</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>41880</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>41943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>41971</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>42062</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>42153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>42247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>42398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>42704</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>46295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>46325</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>46356</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>46416</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>46444</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>46507</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>46538</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>46568</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>46598</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>46630</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>46660</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>46689</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>46721</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>46752</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>46783</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>46812</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>46843</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>46871</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>46904</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>46934</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>46965</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>46996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>47025</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>47057</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>47087</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>47116</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>47149</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>47177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>47207</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>47238</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>47269</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>47298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>47330</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>47361</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>47389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>47422</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>47452</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>47483</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>47514</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>47542</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>47571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>47603</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>47662</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>47725</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>47756</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>47787</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>47816</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>47848</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>47879</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>47907</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>47938</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>47968</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>47998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>48029</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>48060</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>48089</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>48121</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>48152</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>48180</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>48213</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>48243</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>48271</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>48304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>48334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>48365</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>48395</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>48425</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>48457</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>48487</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>48516</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>48548</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>48579</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>48610</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>48638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>48669</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>48698</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>48730</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>48760</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>48789</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>48822</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>48852</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>48883</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>48913</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>48943</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>48975</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>49003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>49034</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>49062</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>49095</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>49125</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>49156</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>49187</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>49216</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>49248</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>49278</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>49340</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>49368</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>49398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>49429</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>49460</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>49489</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>49521</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>49552</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>49580</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>49613</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>49643</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>49674</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>49705</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>49734</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>49765</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>49795</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>49825</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>49856</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>49887</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>49916</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>49948</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>49979</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>50070</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>50098</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>50130</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>50160</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>50189</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>50221</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>50252</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>50283</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>50313</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>50343</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>50374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>50405</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>50434</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>50462</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>50495</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>50525</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>50556</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>50586</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>50616</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>50648</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>50678</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>50707</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>50739</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>50770</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>50801</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>50829</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>50860</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>50889</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>50921</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>50951</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>50980</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>51013</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>51043</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>51074</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>51104</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>51134</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>51166</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>51195</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>51225</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>51256</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>51287</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>51316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A4805-21C4-493F-A001-A40390CD23A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46D2040-1BCF-4332-AB38-D52A5AC9DA67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8338,8 +8338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8604,7 +8604,7 @@
         <v>43371</v>
       </c>
       <c r="B50" s="10">
-        <v>0.03</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>43465</v>
       </c>
       <c r="B51" s="10">
-        <v>0.03</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8620,7 +8620,7 @@
         <v>43553</v>
       </c>
       <c r="B52" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8636,7 +8636,7 @@
         <v>43738</v>
       </c>
       <c r="B54" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
         <v>43830</v>
       </c>
       <c r="B55" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8652,7 +8652,7 @@
         <v>43921</v>
       </c>
       <c r="B56" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8668,7 +8668,7 @@
         <v>44104</v>
       </c>
       <c r="B58" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8676,7 +8676,7 @@
         <v>44196</v>
       </c>
       <c r="B59" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8684,7 +8684,7 @@
         <v>44286</v>
       </c>
       <c r="B60" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>44469</v>
       </c>
       <c r="B62" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8708,7 +8708,7 @@
         <v>44561</v>
       </c>
       <c r="B63" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
         <v>44651</v>
       </c>
       <c r="B64" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8732,7 +8732,7 @@
         <v>44834</v>
       </c>
       <c r="B66" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8740,7 +8740,7 @@
         <v>44925</v>
       </c>
       <c r="B67" s="10">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
         <v>45016</v>
       </c>
       <c r="B68" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10128,8 +10128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46D2040-1BCF-4332-AB38-D52A5AC9DA67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87789452-223B-44D8-A7F5-CB4C30DB8242}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3205,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,6 +3347,26 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
@@ -8338,8 +8358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87789452-223B-44D8-A7F5-CB4C30DB8242}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD1EB23-A053-4376-8307-37920245E5B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5880" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3207,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -10148,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD1EB23-A053-4376-8307-37920245E5B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD40238-5DE7-4BBA-8741-BC994DDAA8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5880" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -8358,8 +8358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8624,7 +8624,7 @@
         <v>43371</v>
       </c>
       <c r="B50" s="10">
-        <v>2.3E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -10148,7 +10148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD40238-5DE7-4BBA-8741-BC994DDAA8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F265E0A-1D55-4C01-A36D-F12A001913C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -486,10 +486,10 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G187" sqref="G187"/>
+      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,10 +5461,10 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA136" sqref="AA136"/>
+      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C146" s="2"/>
       <c r="E146" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6295,6 +6295,9 @@
       </c>
       <c r="B157" s="7">
         <v>4.0600000000000011E-3</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -8358,7 +8361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F265E0A-1D55-4C01-A36D-F12A001913C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{759912B8-E9F5-4C0D-9E37-06D5DDBD1CFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,10 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3028,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8627,7 +8622,7 @@
         <v>43371</v>
       </c>
       <c r="B50" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8635,7 +8630,7 @@
         <v>43465</v>
       </c>
       <c r="B51" s="10">
-        <v>2.4E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{759912B8-E9F5-4C0D-9E37-06D5DDBD1CFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7346A51F-EA79-4C95-BF17-F3EEC99EE6E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -7616,8 +7616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,7 +7860,7 @@
         <v>0.06</v>
       </c>
       <c r="I6" s="2">
-        <v>2.47E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="K6" s="2">
         <v>-0.5</v>
@@ -8356,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10146,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10720,82 +10720,88 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42307</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42338</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42369</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42398</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42429</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42460</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42489</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42521</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42551</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42580</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42613</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42643</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42674</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42704</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42734</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42766</v>
       </c>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7346A51F-EA79-4C95-BF17-F3EEC99EE6E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{24CB967B-1649-47BD-AB70-C8965D90A759}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -196,7 +195,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +479,10 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +493,7 @@
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1685,31 +1683,108 @@
       <c r="A149" s="1">
         <v>43404</v>
       </c>
+      <c r="B149" s="2">
+        <v>2.2687944626033451E-3</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2.1687944626033453E-3</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1.0151893866564121E-3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>5.0139175711125916E-2</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.33940804597701102</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43434</v>
       </c>
+      <c r="B150" s="8"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43465</v>
       </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
+      <c r="B152" s="2">
+        <v>2.2687944626033451E-3</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2.1687944626033453E-3</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1.0151893866564121E-3</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.35569195402298842</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.33940804597701102</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43524</v>
       </c>
+      <c r="D153" s="3"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
       </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="9"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -1725,39 +1800,47 @@
       <c r="A157" s="1">
         <v>43644</v>
       </c>
-      <c r="B157" s="2">
-        <v>2.2687944626033451E-3</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1.6687944626033453E-3</v>
-      </c>
-      <c r="D157" s="2">
-        <v>7.4447221688136903E-2</v>
-      </c>
-      <c r="E157" s="2">
-        <v>1.0151893866564121E-3</v>
-      </c>
-      <c r="F157" s="2">
-        <v>0.45787356321839073</v>
-      </c>
-      <c r="G157" s="2">
-        <v>0.11781839080459769</v>
-      </c>
-      <c r="H157" s="9">
-        <v>0.33490804597701102</v>
-      </c>
-      <c r="I157" s="2">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-      <c r="C158" s="11"/>
+      <c r="B158" s="2">
+        <v>2.2687944626033451E-3</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1.6687944626033453E-3</v>
+      </c>
+      <c r="D158" s="2">
+        <v>7.4447221688136903E-2</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1.0151893866564121E-3</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0.45787356321839073</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0.11781839080459769</v>
+      </c>
+      <c r="H158" s="9">
+        <v>0.33490804597701102</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3023,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3184,7 @@
         <v>2019</v>
       </c>
       <c r="B13" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3457,7 @@
   <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="O165" sqref="O165"/>
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7616,7 +7699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -10147,7 +10230,7 @@
   <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{24CB967B-1649-47BD-AB70-C8965D90A759}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1598C6B5-4C28-4DA1-9DB4-46163743D114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -478,11 +478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
+      <selection pane="bottomRight" activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8439,8 +8439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8729,7 +8729,7 @@
         <v>43644</v>
       </c>
       <c r="B53" s="10">
-        <v>3.2000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -10229,7 +10229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1598C6B5-4C28-4DA1-9DB4-46163743D114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EACAD7-6914-47A5-A71D-BF02E38D4B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,15 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -478,11 +483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L148" sqref="L148"/>
+      <selection pane="bottomRight" activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,6 +3281,26 @@
         <v>2036</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3283,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,6 +3470,26 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5538,11 +5583,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M27" sqref="M27"/>
+      <selection pane="topRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,9 +6417,7 @@
       <c r="A157" s="1">
         <v>43644</v>
       </c>
-      <c r="B157" s="7">
-        <v>4.0600000000000011E-3</v>
-      </c>
+      <c r="B157" s="7"/>
       <c r="E157" s="2">
         <v>1.5E-3</v>
       </c>
@@ -6382,12 +6426,13 @@
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-      <c r="B158" s="2"/>
+      <c r="B158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43707</v>
       </c>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -6408,14 +6453,12 @@
       <c r="A163" s="1">
         <v>43830</v>
       </c>
-      <c r="B163" s="7">
-        <v>4.0500000000000015E-3</v>
-      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43861</v>
       </c>
+      <c r="B164" s="7"/>
       <c r="C164" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -6444,14 +6487,12 @@
       <c r="A169" s="1">
         <v>44012</v>
       </c>
-      <c r="B169" s="7">
-        <v>4.0400000000000019E-3</v>
-      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44043</v>
       </c>
+      <c r="B170" s="7"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -6477,14 +6518,12 @@
       <c r="A175" s="1">
         <v>44196</v>
       </c>
-      <c r="B175" s="7">
-        <v>4.0300000000000023E-3</v>
-      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>
+      <c r="B176" s="7"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -6510,14 +6549,12 @@
       <c r="A181" s="1">
         <v>44377</v>
       </c>
-      <c r="B181" s="7">
-        <v>4.0200000000000027E-3</v>
-      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44407</v>
       </c>
+      <c r="B182" s="7"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -6543,14 +6580,12 @@
       <c r="A187" s="1">
         <v>44561</v>
       </c>
-      <c r="B187" s="7">
-        <v>4.0100000000000031E-3</v>
-      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44592</v>
       </c>
+      <c r="B188" s="7"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -6576,19 +6611,18 @@
       <c r="A193" s="1">
         <v>44742</v>
       </c>
-      <c r="B193" s="7">
-        <v>4.0000000000000036E-3</v>
-      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44771</v>
       </c>
+      <c r="B194" s="7"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44804</v>
       </c>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -6609,14 +6643,12 @@
       <c r="A199" s="1">
         <v>44925</v>
       </c>
-      <c r="B199" s="7">
-        <v>3.990000000000004E-3</v>
-      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44957</v>
       </c>
+      <c r="B200" s="7"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -6642,14 +6674,12 @@
       <c r="A205" s="1">
         <v>45107</v>
       </c>
-      <c r="B205" s="7">
-        <v>3.9800000000000044E-3</v>
-      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45138</v>
       </c>
+      <c r="B206" s="7"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -6675,14 +6705,12 @@
       <c r="A211" s="1">
         <v>45289</v>
       </c>
-      <c r="B211" s="7">
-        <v>3.9700000000000048E-3</v>
-      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45322</v>
       </c>
+      <c r="B212" s="7"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
@@ -6708,14 +6736,12 @@
       <c r="A217" s="1">
         <v>45471</v>
       </c>
-      <c r="B217" s="7">
-        <v>3.9600000000000052E-3</v>
-      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45504</v>
       </c>
+      <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -6741,14 +6767,12 @@
       <c r="A223" s="1">
         <v>45657</v>
       </c>
-      <c r="B223" s="7">
-        <v>3.9500000000000056E-3</v>
-      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45688</v>
       </c>
+      <c r="B224" s="7"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
@@ -6774,9 +6798,6 @@
       <c r="A229" s="1">
         <v>45838</v>
       </c>
-      <c r="B229" s="7">
-        <v>3.940000000000006E-3</v>
-      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
@@ -6807,14 +6828,12 @@
       <c r="A235" s="1">
         <v>46022</v>
       </c>
-      <c r="B235" s="7">
-        <v>3.9300000000000064E-3</v>
-      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>46052</v>
       </c>
+      <c r="B236" s="7"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
@@ -6840,14 +6859,12 @@
       <c r="A241" s="1">
         <v>46203</v>
       </c>
-      <c r="B241" s="7">
-        <v>3.9200000000000068E-3</v>
-      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>46234</v>
       </c>
+      <c r="B242" s="7"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
@@ -6873,14 +6890,12 @@
       <c r="A247" s="1">
         <v>46387</v>
       </c>
-      <c r="B247" s="7">
-        <v>3.9100000000000072E-3</v>
-      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>46416</v>
       </c>
+      <c r="B248" s="7"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
@@ -6906,9 +6921,7 @@
       <c r="A253" s="1">
         <v>46568</v>
       </c>
-      <c r="B253" s="7">
-        <v>3.9000000000000072E-3</v>
-      </c>
+      <c r="B253" s="7"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
@@ -6925,162 +6938,169 @@
         <v>46660</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>46689</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>46721</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>46752</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="7"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>46783</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="7"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>46812</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>46843</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>46871</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>46904</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>46934</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="7"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>46965</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>46996</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>47025</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>47057</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>47087</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>47116</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>47149</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="7"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>47177</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>47207</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>47238</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>47269</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>47298</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>47330</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>47361</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>47389</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>47422</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>47452</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>47483</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>47514</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="7"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>47542</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>47571</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>47603</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>47634</v>
       </c>
@@ -7697,10 +7717,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7975,7 +7995,7 @@
         <v>0.05</v>
       </c>
       <c r="K7" s="3">
-        <v>0.3</v>
+        <v>13</v>
       </c>
       <c r="L7" s="2">
         <v>0.05</v>
@@ -7998,7 +8018,7 @@
         <v>43830</v>
       </c>
       <c r="K8" s="2">
-        <v>-0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="L8" s="3">
         <v>0.03</v>
@@ -8429,6 +8449,237 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>49489</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>49674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>49856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>50221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>50405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>50586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>50951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>51134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>51316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>51501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51680</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>52596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>52778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>52961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>53143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>53325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>53507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>53692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>53871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>54057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>54239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>54423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>54604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>54788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>54969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>55152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>55334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>55516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>55698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>55884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>56065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>56249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>56430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>56614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>56795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>56979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>57161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>57343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>57525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8439,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A137" sqref="A114:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10229,7 +10480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A403" workbookViewId="0">
       <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EACAD7-6914-47A5-A71D-BF02E38D4B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D1C51A-27EA-4758-BEB9-308EC688AB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -5583,7 +5583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M27" sqref="M27"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
@@ -10480,8 +10480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11295,12 +11295,8 @@
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-      <c r="B158" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="C158" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D1C51A-27EA-4758-BEB9-308EC688AB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FDE306-67C0-4BA4-909C-A11B64A2290A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B389" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A398" sqref="A398"/>
@@ -3310,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,10 +4292,16 @@
       <c r="A153" s="1">
         <v>43524</v>
       </c>
+      <c r="B153" s="3">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.06</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -10480,7 +10486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FDE306-67C0-4BA4-909C-A11B64A2290A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33167841-99FE-4A3B-866B-9B2A978C482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1598C6B5-4C28-4DA1-9DB4-46163743D114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C5468-9361-4C8E-B56A-79609DAB6AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3106,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3184,7 @@
         <v>2019</v>
       </c>
       <c r="B13" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33167841-99FE-4A3B-866B-9B2A978C482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C06451-82CE-4F36-858E-1A204C008268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,6 +4323,7 @@
       <c r="A158" s="1">
         <v>43677</v>
       </c>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C5468-9361-4C8E-B56A-79609DAB6AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EB89A-3765-4302-BA9A-A4A33890AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L148" sqref="L148"/>
@@ -3106,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FFE29E-9431-479B-A1F7-074B6658152B}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,6 +3445,26 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,10 +4267,16 @@
       <c r="A153" s="1">
         <v>43524</v>
       </c>
+      <c r="B153" s="3">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43553</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.06</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5539,10 +5565,10 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B340" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
+      <selection pane="bottomRight" activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7697,10 +7723,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,6 +8456,21 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>49489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>49674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8439,7 +8480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -10229,7 +10270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A373" workbookViewId="0">
       <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EB89A-3765-4302-BA9A-A4A33890AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A4F146-E907-4D28-8670-CCEE4ECA11B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7725,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8001,7 +8001,7 @@
         <v>0.05</v>
       </c>
       <c r="K7" s="3">
-        <v>0.3</v>
+        <v>15.6</v>
       </c>
       <c r="L7" s="2">
         <v>0.05</v>
@@ -8024,7 +8024,7 @@
         <v>43830</v>
       </c>
       <c r="K8" s="2">
-        <v>-0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="L8" s="3">
         <v>0.03</v>
@@ -8480,7 +8480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/control panel.xlsx
+++ b/control panel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A4F146-E907-4D28-8670-CCEE4ECA11B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8E918-0D61-401C-A21B-0837BD4A7E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nnb distribution" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,15 @@
     <sheet name="nnc pcent total client" sheetId="7" r:id="rId7"/>
     <sheet name="cash interest rebate" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7725,7 +7730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942FEE-B827-46F7-9078-F9FB4C734CE0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -8480,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15434C-F943-4958-9CC1-AD8CDB1EF8AF}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8762,7 +8767,7 @@
         <v>43553</v>
       </c>
       <c r="B52" s="10">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8770,7 +8775,7 @@
         <v>43644</v>
       </c>
       <c r="B53" s="10">
-        <v>4.2000000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -10270,8 +10275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3FCC0-CE90-4C6B-A07F-3125A3989D1D}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11085,12 +11090,6 @@
       <c r="A158" s="1">
         <v>43677</v>
       </c>
-      <c r="B158" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="C158" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -11102,82 +11101,88 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43769</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43798</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43861</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43889</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43921</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43951</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44012</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44074</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44104</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44134</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44165</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44196</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44225</v>
       </c>
